--- a/alma/Общая таблица.xlsx
+++ b/alma/Общая таблица.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2175553c3f41360f/workspace/альма/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ruslan_safaev\alma_servie\alma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFB9BA1-316E-43F9-A81E-05C498BCA313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D1C1DE-F3A3-4A44-AF05-76DE7C00AD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ненормальная работа" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -692,18 +686,18 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.36328125" style="11" customWidth="1"/>
     <col min="9" max="9" width="32.36328125" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.08984375" style="2"/>
@@ -1124,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D84C640-30F9-4FBB-AADA-504729C2F52C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
